--- a/app_directory_final_homepage_with_vendor.xlsx
+++ b/app_directory_final_homepage_with_vendor.xlsx
@@ -491,7 +491,11 @@
           <t>A predictive intelligence platform for B2B marketing and sales</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6sense</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>https://6sense.com</t>
@@ -534,7 +538,11 @@
           <t>A database of IP addresses linked to abusive activities</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Abuseipdb</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>https://www.abuseipdb.com</t>
@@ -624,7 +632,11 @@
           <t>AI-powered content governance platform ensuring content quality and consistency</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Acrolinx</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>https://www.acrolinx.com</t>
@@ -667,7 +679,11 @@
           <t>A cloud-based financial reporting and compliance solution</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Donnelleyfinancial</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>https://www.donnelleyfinancial.com/solutions/financial-reporting/activedisclosure</t>
@@ -1180,7 +1196,11 @@
           <t>Compliance management solution for payroll and tax</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Adp</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>https://www.adp.com/what-we-offer/products/smartcompliance.aspx</t>
@@ -1223,7 +1243,11 @@
           <t>Digital media and data consultancy specializing in Google Marketing Platform</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Adswerve</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>https://www.adswerve.com</t>
@@ -1266,7 +1290,11 @@
           <t>Product roadmap software for planning and building products</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Aha</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>https://www.aha.io</t>
@@ -1309,7 +1337,11 @@
           <t>Platform for registering and managing AI models</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ai Registry</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>https://ai-registry.org</t>
@@ -1352,7 +1384,11 @@
           <t>Spam filtering service for blogs and websites</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Akismet</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>https://akismet.com</t>
@@ -1395,7 +1431,11 @@
           <t>Data analytics platform for data blending and advanced analytics</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Alteryx</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>https://www.alteryx.com</t>
@@ -1485,7 +1525,11 @@
           <t>IT automation platform for configuration management and deployment</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ansible</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>https://www.ansible.com/products/automation-platform</t>
@@ -1528,7 +1572,11 @@
           <t>AI assistant developed by Anthropic for conversational tasks</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Anthropic</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>https://www.anthropic.com</t>
@@ -1571,7 +1619,11 @@
           <t>Cybersecurity platform for threat detection and response</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Anzenna</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>https://anzenna.com</t>
@@ -1614,7 +1666,11 @@
           <t>Build automation tool used primarily for Java projects</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Apache</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>https://maven.apache.org</t>
@@ -1657,7 +1713,11 @@
           <t>Security tool for application vulnerability assessment</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Appseclens</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>https://appseclens.com</t>
@@ -1700,7 +1760,11 @@
           <t>Desktop GIS application for mapping and spatial analysis</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Esri</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>https://www.esri.com/en-us/arcgis/products/arcgis-pro/overview</t>
@@ -1743,7 +1807,11 @@
           <t>eLearning authoring suite for creating online courses</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Articulate</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>https://articulate.com/360</t>
@@ -1786,7 +1854,11 @@
           <t>Repository manager for managing binary artifacts</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Jfrog</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>https://jfrog.com/artifactory</t>
@@ -1829,7 +1901,11 @@
           <t>Asset management software for tracking and managing assets</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Assetpanda</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>https://www.assetpanda.com</t>
@@ -1872,7 +1948,11 @@
           <t>Tax compliance automation software for businesses</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Avalara</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>https://www.avalara.com</t>
@@ -1915,7 +1995,11 @@
           <t>Continuous integration and delivery tool for software development</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Jenkins</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>https://www.jenkins.io</t>
@@ -1958,7 +2042,11 @@
           <t>Security solutions provider specializing in video surveillance</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Avigilon</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>https://www.avigilon.com</t>
@@ -2001,7 +2089,11 @@
           <t>Domain name system (DNS) management service</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Avlr</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>https://www.avlr.com</t>
@@ -2138,7 +2230,11 @@
           <t>Network management tool for monitoring and managing networks</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Synchronet</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>https://www.synchronet.com</t>
@@ -2275,7 +2371,11 @@
           <t>Rapid wireframing tool for creating mockups and prototypes</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Balsamiq</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>https://balsamiq.com</t>
@@ -2318,7 +2418,11 @@
           <t>Sales productivity platform for managing customer relationships</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Getbase</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>https://getbase.com</t>
@@ -2361,7 +2465,11 @@
           <t>File comparison tool for comparing and merging files and folders</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Scooter</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>https://www.scootersoftware.com</t>
@@ -2404,7 +2512,11 @@
           <t>Data intelligence platform for data privacy and protection</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Bigid</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>https://bigid.com</t>
@@ -2447,7 +2559,11 @@
           <t>Security ratings platform for managing third-party risk</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Bitsight</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>https://www.bitsight.com</t>
@@ -2490,7 +2606,11 @@
           <t>Solution for monitoring and managing security performance</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Bitsight</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>https://www.bitsight.com/security-performance-management</t>
@@ -2533,7 +2653,11 @@
           <t>Solution for assessing and managing third-party security risk</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Bitsight</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>https://www.bitsight.com/third-party-risk-management</t>
@@ -2576,7 +2700,11 @@
           <t>Software analytics platform for measuring developer productivity</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Blueoptima</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>https://www.blueoptima.com</t>
@@ -2619,7 +2747,11 @@
           <t>API management platform for designing and managing APIs</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Boomi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>https://boomi.com/platform/api-management</t>
@@ -2662,7 +2794,11 @@
           <t>Search engine optimization (SEO) platform for content performance</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Brightedge</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>https://www.brightedge.com</t>
@@ -2705,7 +2841,11 @@
           <t>Email verification service for validating email addresses</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Briteverify</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>https://www.briteverify.com</t>
@@ -2748,7 +2888,11 @@
           <t>Cloud-based access control system for physical security</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Brivo</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>https://www.brivo.com</t>
@@ -2791,7 +2935,11 @@
           <t>Cross-browser testing tool for web applications</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Browserstack</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>https://www.browserstack.com/automate</t>
@@ -2834,7 +2982,11 @@
           <t>Social media management platform for scheduling posts</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>https://buffer.com</t>
@@ -2877,7 +3029,11 @@
           <t>Website profiler tool for analyzing website technologies</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Builtwith</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>https://builtwith.com</t>
@@ -2920,7 +3076,11 @@
           <t>Web vulnerability scanner for security testing</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portswigger</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>https://portswigger.net/burp</t>
@@ -2963,7 +3123,11 @@
           <t>Content research tool for analyzing content performance</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Buzzsumo</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>https://buzzsumo.com</t>
@@ -3006,7 +3170,11 @@
           <t>Screen recording and video editing software</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Techsmith</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>https://www.techsmith.com/camtasia.html</t>
@@ -3049,7 +3217,11 @@
           <t>Graphic design platform for creating visual content</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Canva</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>https://www.canva.com</t>
@@ -3092,7 +3264,11 @@
           <t>Event engagement platform for lead capture and management</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Captello</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>https://www.captello.com</t>
@@ -3135,7 +3311,11 @@
           <t>Quality automation tool for content and code</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ccoqualityautomation</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>https://www.ccoqualityautomation.com</t>
@@ -3178,7 +3358,11 @@
           <t>Document renaming automation tool</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ccoqualityautomation</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>https://www.ccoqualityautomation.com</t>
@@ -3221,7 +3405,11 @@
           <t>System under test preparation tool</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ccoqualityautomation</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>https://www.ccoqualityautomation.com</t>
@@ -3264,7 +3452,11 @@
           <t>Secure file transfer server for Windows</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Cerberusftp</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>https://www.cerberusftp.com</t>
@@ -3307,7 +3499,11 @@
           <t>Professional services automation platform</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Certinia</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>https://www.certinia.com</t>
@@ -3350,7 +3546,11 @@
           <t>Payment processing solution for Salesforce</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Appfrontier</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>https://www.appfrontier.com</t>
@@ -3393,7 +3593,11 @@
           <t>Legacy system emulation solution for modern platforms</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Stromasys</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>https://www.stromasys.com/charon-virtualization</t>
@@ -3436,7 +3640,11 @@
           <t>AI language model developed by OpenAI for conversational tasks</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Openai</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>https://openai.com/chatgpt</t>
@@ -3479,7 +3687,11 @@
           <t>Cloud-native observability platform for metrics monitoring</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Grafana</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>https://grafana.com/products/mimir</t>
@@ -3522,7 +3734,11 @@
           <t>Business intelligence and analytics platform</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Orangez</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>https://www.orangez.com</t>
@@ -3565,7 +3781,11 @@
           <t>Software release strategy for gradual feature rollouts</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Progressivedelivery</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>https://www.progressivedelivery.com</t>
@@ -3608,7 +3828,11 @@
           <t>Membership for the Center for Internet Security</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cisecurity</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>https://www.cisecurity.org/membership</t>
@@ -3651,7 +3875,11 @@
           <t>Media monitoring and PR software platform</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Cision</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>https://www.cision.com</t>
@@ -3694,7 +3922,11 @@
           <t>Secure file sharing and collaboration platform</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sharefile</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>https://www.sharefile.com</t>
@@ -3737,7 +3969,11 @@
           <t>API integration platform for cloud applications</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cloud Elements</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>https://cloud-elements.com</t>
@@ -3921,7 +4157,11 @@
           <t>Cloud security platform for infrastructure protection</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Wiz</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>https://www.wiz.io</t>
@@ -3964,7 +4204,11 @@
           <t>Cloud cost management and optimization platform</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cloudability</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>https://www.cloudability.com</t>
@@ -4054,7 +4298,11 @@
           <t>Global payroll and payment services platform</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cloudpay</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>https://www.cloudpay.net</t>
@@ -4097,7 +4345,11 @@
           <t>Compliance management and regulatory technology solutions</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>https://www.compliancetech.com</t>
@@ -4140,7 +4392,11 @@
           <t>Travel and expense management platform</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>https://www.concur.com</t>
@@ -4230,7 +4486,11 @@
           <t>Managed Apache Kafka streaming platform</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Confluent</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>https://www.confluent.io</t>
@@ -4273,7 +4533,11 @@
           <t>Revenue lifecycle management platform</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Conga</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>https://conga.com</t>
@@ -4316,7 +4580,11 @@
           <t>Document generation and automation platform</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Conga</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>https://conga.com/products/composer</t>
@@ -4359,7 +4627,11 @@
           <t>Document generation for Salesforce CPQ</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Conga</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>https://conga.com/products/composer</t>
@@ -4402,7 +4674,11 @@
           <t>Content analytics and insights platform</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Globalcontentinsights</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>https://www.globalcontentinsights.com</t>
@@ -4492,7 +4768,11 @@
           <t>Automated Legal Framework Assistant</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Alfa</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>https://www.alfa.com</t>
@@ -4535,7 +4815,11 @@
           <t>System Under Test data extraction tool</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sut Extraction</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>https://www.sut-extraction.com</t>
@@ -4578,7 +4862,11 @@
           <t>Tax compliance knowledge and documentation center</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Avalara</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>https://www.avalara.com/taxrates/en/tax-guides</t>
@@ -4621,7 +4909,11 @@
           <t>Content management and portal solution</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Mycontentportal</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>https://www.mycontentportal.com</t>
@@ -4664,7 +4956,11 @@
           <t>User interface string localization platform</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Localizationplatform</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>https://www.localizationplatform.com</t>
@@ -4707,7 +5003,11 @@
           <t>Content creation and management platform</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Contentstudio</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>https://contentstudio.io</t>
@@ -4750,7 +5050,11 @@
           <t>Structured content authoring and management platform</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ixiasoft</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>https://www.ixiasoft.com</t>
@@ -4793,7 +5097,11 @@
           <t>Digital experience analytics platform</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Contentsquare</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>https://contentsquare.com</t>
@@ -4836,7 +5144,11 @@
           <t>AI-powered search and recommendation platform</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Coveo</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>https://www.coveo.com</t>
@@ -4879,7 +5191,11 @@
           <t>Market intelligence and competitive analysis platform</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Crayon</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>https://www.crayon.co</t>
@@ -4969,7 +5285,11 @@
           <t>Data pipeline and observability platform</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Cribl</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>https://cribl.io</t>
@@ -5012,7 +5332,11 @@
           <t>Pre-employment testing and assessment platform</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Criteria</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>https://www.criteriacorp.com</t>
@@ -5055,7 +5379,11 @@
           <t>Data analytics and business intelligence platform</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cronsights</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>https://www.cronsights.com</t>
@@ -5098,7 +5426,11 @@
           <t>Partner ecosystem intelligence platform</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Crossbeam</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>https://www.crossbeam.com</t>
@@ -5141,7 +5473,11 @@
           <t>DocuSign integration for CrowdReason platform</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Docusign</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>https://www.docusign.com</t>
@@ -5231,7 +5567,11 @@
           <t>HubSpot integration for CrowdReason platform</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Hubspot</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>https://www.hubspot.com</t>
@@ -5321,7 +5661,11 @@
           <t>Nectafy integration for CrowdReason platform</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Nectafy</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>https://www.nectafy.com</t>
@@ -5364,7 +5708,11 @@
           <t>Unmanaged CrowdReason integration</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Crowdreason</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>https://www.crowdreason.com</t>
@@ -5407,7 +5755,11 @@
           <t>Xero accounting integration for CrowdReason platform</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Xero</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>https://www.xero.com</t>
@@ -5497,7 +5849,11 @@
           <t>Cloud-native endpoint security platform</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Crowdstrike</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>https://www.crowdstrike.com</t>
@@ -5540,7 +5896,11 @@
           <t>Event management and registration platform</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cvent</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>https://www.cvent.com</t>
@@ -5583,7 +5943,11 @@
           <t>Endpoint Privilege Manager for security</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cyberark</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>https://www.cyberark.com/products/endpoint-privilege-manager</t>
@@ -5626,7 +5990,11 @@
           <t>Privileged Access Management platform</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Cyberark</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>https://www.cyberark.com/products/privileged-access-manager</t>
@@ -5669,7 +6037,11 @@
           <t>Cybersecurity training and simulation platform</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cyberbit</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>https://www.cyberbit.com</t>
@@ -5712,7 +6084,11 @@
           <t>Payment management and fraud protection platform</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cybersource</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>https://www.cybersource.com</t>
@@ -5755,7 +6131,11 @@
           <t>Dun &amp; Bradstreet data and analytics API</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Dnb</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>https://www.dnb.com/api</t>
@@ -5798,7 +6178,11 @@
           <t>Platform for data engineering and analytics workflows</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Dataengineering</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>https://www.dataengineering.com</t>
@@ -5841,7 +6225,11 @@
           <t>Data build tool for analytics engineering</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Getdbt</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>https://www.getdbt.com</t>
@@ -5884,7 +6272,11 @@
           <t>Apache Airflow for data science workflows</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Apache</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>https://airflow.apache.org</t>
@@ -5927,7 +6319,11 @@
           <t>Collaborative data science platform</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>https://hex.tech</t>
@@ -5970,7 +6366,11 @@
           <t>Data observability and monitoring platform</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Montecarlo</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>https://www.montecarlodata.com</t>
@@ -6013,7 +6413,11 @@
           <t>R Shiny web application framework</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rstudio</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>https://shiny.rstudio.com</t>
@@ -6103,7 +6507,11 @@
           <t>Davo tax compliance solution</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Davo</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>https://www.davo.com</t>
@@ -6146,7 +6554,11 @@
           <t>DocuSign integration for Davo platform</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Docusign</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>https://www.docusign.com</t>
@@ -6189,7 +6601,11 @@
           <t>HubSpot integration for Davo platform</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Hubspot</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>https://www.hubspot.com</t>
@@ -6232,7 +6648,11 @@
           <t>QuickBooks integration for Davo platform</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Intuit</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>https://quickbooks.intuit.com</t>
@@ -6275,7 +6695,11 @@
           <t>Database self-service management portal</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Dbselfservice</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>https://www.dbselfservice.com</t>
@@ -6318,7 +6742,11 @@
           <t>Global database of companies and investment data</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Dealroom</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>https://dealroom.co</t>
@@ -6361,7 +6789,11 @@
           <t>Privileged account management and secrets management</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Delinea</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>https://delinea.com/products/secret-server</t>
@@ -6404,7 +6836,11 @@
           <t>Salesforce data management and migration platform</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Validity</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>https://www.validity.com/products/demandtools</t>
@@ -6447,7 +6883,11 @@
           <t>F5 developer community and resources platform</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>https://devcentral.f5.com</t>
@@ -6490,7 +6930,11 @@
           <t>Development tools and platform</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Devdot</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>https://www.devdot.com</t>
@@ -6533,7 +6977,11 @@
           <t>Telerik development tools suite</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Telerik</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>https://www.telerik.com/devcraft</t>
@@ -6576,7 +7024,11 @@
           <t>Digital certificate authority and PKI solutions</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Digicert</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>https://www.digicert.com</t>
@@ -6619,7 +7071,11 @@
           <t>Open-source publishing engine for DITA content</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Dita Ot</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>https://www.dita-ot.org</t>
@@ -6662,7 +7118,11 @@
           <t>Enterprise messaging and communication platform</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Mercurymessenger</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>https://www.mercurymessenger.com</t>
@@ -6705,7 +7165,11 @@
           <t>Financial reconciliation and matching platform</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Reconciliation</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>https://www.reconciliation.com</t>
@@ -6748,7 +7212,11 @@
           <t>Electronic signature and digital transaction management</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Docusign</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>https://www.docusign.com</t>
@@ -6791,7 +7259,11 @@
           <t>User research and insights platform</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Dovetail</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>https://dovetailapp.com</t>
@@ -6834,7 +7306,11 @@
           <t>Online diagramming and flowchart tool</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>diagrams.net</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>https://app.diagrams.net</t>
@@ -6924,7 +7400,11 @@
           <t>Conversational marketing and sales platform</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Drift</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>https://www.drift.com</t>
@@ -7014,7 +7494,11 @@
           <t>Compensation and survey data platform</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Erieri</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>https://www.erieri.com</t>
@@ -7104,7 +7588,11 @@
           <t>Workplace culture and compliance training platform</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Emtrain</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>https://emtrain.com</t>
@@ -7147,7 +7635,11 @@
           <t>Wireless network infrastructure and cloud management</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Cradlepoint</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>https://cradlepoint.com</t>
@@ -7190,7 +7682,11 @@
           <t>Schneider Electric's IoT-enabled architecture</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>https://www.se.com/ww/en/work/solutions/system/s1/industrial-automation-control/ecostruxure-architecture-platform</t>
@@ -7233,7 +7729,11 @@
           <t>Network infrastructure documentation and management</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Readthedocs</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>https://netbox.readthedocs.io</t>
@@ -7276,7 +7776,11 @@
           <t>Next-Generation Firewall security platform</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Paloalto</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>https://www.paloaltonetworks.com/network-security/next-generation-firewall</t>
@@ -7319,7 +7823,11 @@
           <t>Network security firewall solutions</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Paloalto</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>https://www.paloaltonetworks.com</t>
@@ -7362,7 +7870,11 @@
           <t>Server infrastructure management platform</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Uti</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>https://www.uti.com</t>
@@ -7405,7 +7917,11 @@
           <t>Network access control and policy enforcement</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Cis</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/products/security/identity-services-engine</t>
@@ -7448,7 +7964,11 @@
           <t>Centralized firewall management platform</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Paloalto</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>https://www.paloaltonetworks.com/network-security/panorama</t>
@@ -7491,7 +8011,11 @@
           <t>Cloud-delivered security service edge</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Paloalto</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>https://www.paloaltonetworks.com/sase/access</t>
@@ -7581,7 +8105,11 @@
           <t>Online securities trading and investment platform</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Etrade</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>https://us.etrade.com</t>
@@ -7624,7 +8152,11 @@
           <t>Cross-platform development framework</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Everest</t>
+        </is>
+      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>https://www.everest.com</t>
@@ -7667,7 +8199,11 @@
           <t>Collaborative design and prototyping platform</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Figma</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>https://www.figma.com</t>
@@ -7710,7 +8246,11 @@
           <t>Secure file sharing and cloud storage platform</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Files</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>https://www.files.com</t>
@@ -7753,7 +8293,11 @@
           <t>Incident management and response platform</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Firehydrant</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>https://firehydrant.io</t>
@@ -7796,7 +8340,11 @@
           <t>Threat intelligence integration for Splunk</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Flashpoint Intel</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>https://www.flashpoint-intel.com</t>
@@ -7839,7 +8387,11 @@
           <t>Accounting workflow and close management platform</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>FloQast</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>https://floqast.com</t>
@@ -7882,7 +8434,11 @@
           <t>Digital forensics and incident response tools</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Exterro</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>https://www.exterro.com/digital-forensics-software/ftk-forensic-toolkit</t>
@@ -7925,7 +8481,11 @@
           <t>Digital experience analytics and session replay</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Fullstory</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>https://www.fullstory.com</t>
@@ -7968,7 +8528,11 @@
           <t>Customer success management platform</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Gainsight</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>https://www.gainsight.com</t>
@@ -8011,7 +8575,11 @@
           <t>Analytics and workplace consulting platform</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Gallup</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>https://www.gallup.com</t>
@@ -8054,7 +8622,11 @@
           <t>AI-powered governance and compliance platform</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Gat</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>https://www.gat.com</t>
@@ -8097,7 +8669,11 @@
           <t>Legal workflow automation platform</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Gavel</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>https://www.gavel.io</t>
@@ -8140,7 +8716,11 @@
           <t>Salesforce mapping and territory management</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Geopointe</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>https://www.geopointe.com</t>
@@ -8277,7 +8857,11 @@
           <t>Enterprise search and knowledge management platform</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Glean</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>https://www.glean.com</t>
@@ -8320,7 +8904,11 @@
           <t>API gateway validation and testing tool</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Gate Validator</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>https://www.gate-validator.com</t>
@@ -8363,7 +8951,11 @@
           <t>Platform for measuring software delivery metrics</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Softwaredeliveryperformance</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>https://www.softwaredeliveryperformance.com</t>
@@ -8453,7 +9045,11 @@
           <t>Revenue intelligence and conversation analytics</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Gong</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>https://www.gong.io</t>
@@ -8637,7 +9233,11 @@
           <t>AI-powered writing assistance and grammar checking</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Grammarly</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>https://www.grammarly.com</t>
@@ -8680,7 +9280,11 @@
           <t>Bug bounty and vulnerability disclosure platform</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Hackerone</t>
+        </is>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>https://www.hackerone.com</t>
@@ -8723,7 +9327,11 @@
           <t>Technical recruitment and coding assessment platform</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Hackerrank</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>https://www.hackerrank.com</t>
@@ -8766,7 +9374,11 @@
           <t>Data breach notification and checking service API</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Haveibeenpwned</t>
+        </is>
+      </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>https://haveibeenpwned.com/API/v3</t>
@@ -8809,7 +9421,11 @@
           <t>Cloud platform for deploying and scaling applications</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Heroku</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>https://www.heroku.com</t>
@@ -8852,7 +9468,11 @@
           <t>Community platform integration with Salesforce</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Higherlogic</t>
+        </is>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>https://www.higherlogic.com</t>
@@ -8895,7 +9515,11 @@
           <t>Sales enablement and content management platform</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Highspot</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>https://www.highspot.com</t>
@@ -8938,7 +9562,11 @@
           <t>Social media management and scheduling platform</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Hootsuite</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>https://hootsuite.com</t>
@@ -8981,7 +9609,11 @@
           <t>Visual programming app for kids</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Gethopscotch</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>https://www.gethopscotch.com</t>
@@ -9071,7 +9703,11 @@
           <t>International tax research and information platform</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Ibfd</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>https://www.ibfd.org</t>
@@ -9114,7 +9750,11 @@
           <t>Document capture and management solution</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>iCapture</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>https://www.icapture.com</t>
@@ -9157,7 +9797,11 @@
           <t>Talent acquisition and recruiting platform</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>iCIMS</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>https://www.icims.com</t>
@@ -9200,7 +9844,11 @@
           <t>Web application firewall and security platform</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Impart</t>
+        </is>
+      </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>https://www.impart.security</t>
@@ -9243,7 +9891,11 @@
           <t>Infrastructure monitoring and observability platform</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Grafana</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>https://grafana.com</t>
@@ -9286,7 +9938,11 @@
           <t>Automated infrastructure patching and management</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Patchautomation</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>https://www.patchautomation.com</t>
@@ -9329,7 +9985,11 @@
           <t>Innovation management and ideation platform</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Innovate</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>https://www.innovate.com</t>
@@ -9372,7 +10032,11 @@
           <t>Revenue operations and analytics platform</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Insightsquared</t>
+        </is>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>https://www.insightsquared.com</t>
@@ -9415,7 +10079,11 @@
           <t>Marketing automation and demand generation platform</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Integrate</t>
+        </is>
+      </c>
       <c r="D206" t="inlineStr">
         <is>
           <t>https://www.integrate.com</t>
@@ -9458,7 +10126,11 @@
           <t>Cyberthreat intelligence platform</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Intel471</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>https://intel471.com</t>
@@ -9548,7 +10220,11 @@
           <t>Inventory management and tracking system</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Inventory Mgmt</t>
+        </is>
+      </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>https://www.inventory-mgmt.com</t>
@@ -9591,7 +10267,11 @@
           <t>Digital product design and collaboration platform</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Invision</t>
+        </is>
+      </c>
       <c r="D210" t="inlineStr">
         <is>
           <t>https://www.invisionapp.com</t>
@@ -9634,7 +10314,11 @@
           <t>Call tracking and conversation analytics platform</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Invoca</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
           <t>https://www.invoca.com</t>
@@ -9677,7 +10361,11 @@
           <t>Contract lifecycle management platform</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Ironclad</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>https://ironcladapp.com</t>
@@ -9720,7 +10408,11 @@
           <t>Information security management standards</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Iso</t>
+        </is>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>https://www.iso.org/isoiec-27001-information-security.html</t>
@@ -9763,7 +10455,11 @@
           <t>Stock photography and image licensing</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>iStock</t>
+        </is>
+      </c>
       <c r="D214" t="inlineStr">
         <is>
           <t>https://www.istockphoto.com</t>
@@ -9806,7 +10502,11 @@
           <t>IT service management and business process automation</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Itbusinessprocess</t>
+        </is>
+      </c>
       <c r="D215" t="inlineStr">
         <is>
           <t>https://www.itbusinessprocess.com</t>
@@ -9849,7 +10549,11 @@
           <t>IT Information Sharing and Analysis Center</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>It Isac</t>
+        </is>
+      </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>https://www.it-isac.org</t>
@@ -9892,7 +10596,11 @@
           <t>PDF creation and manipulation library</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Itextpdf</t>
+        </is>
+      </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>https://itextpdf.com</t>
@@ -10029,7 +10737,11 @@
           <t>Digital services and technology consulting</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Kainos</t>
+        </is>
+      </c>
       <c r="D220" t="inlineStr">
         <is>
           <t>https://www.kainos.com</t>
@@ -10072,7 +10784,11 @@
           <t>Video platform and content management system</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Kaltura</t>
+        </is>
+      </c>
       <c r="D221" t="inlineStr">
         <is>
           <t>https://corp.kaltura.com</t>
@@ -10115,7 +10831,11 @@
           <t>Kanban board and project management tool</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Kanbina</t>
+        </is>
+      </c>
       <c r="D222" t="inlineStr">
         <is>
           <t>https://www.kanbina.com</t>
@@ -10158,7 +10878,11 @@
           <t>Apple device management platform</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Kandji</t>
+        </is>
+      </c>
       <c r="D223" t="inlineStr">
         <is>
           <t>https://www.kandji.io</t>
@@ -10201,7 +10925,11 @@
           <t>IT management and remote monitoring platform</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Kaseya</t>
+        </is>
+      </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>https://www.kaseya.com/products/vsa</t>
@@ -10244,7 +10972,11 @@
           <t>Security awareness training and phishing simulation</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Knowbe4</t>
+        </is>
+      </c>
       <c r="D225" t="inlineStr">
         <is>
           <t>https://www.knowbe4.com</t>
@@ -10287,7 +11019,11 @@
           <t>Phishing incident response and management</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Knowbe4</t>
+        </is>
+      </c>
       <c r="D226" t="inlineStr">
         <is>
           <t>https://www.knowbe4.com/products/phisher</t>
@@ -10330,7 +11066,11 @@
           <t>Know Your Customer as a Service platform</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>KYCaaS</t>
+        </is>
+      </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>https://www.kycaas.com</t>
@@ -10373,7 +11113,11 @@
           <t>Know Your Customer as a Service platform</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>KYCaaS</t>
+        </is>
+      </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>https://www.kycaas.com</t>
@@ -10416,7 +11160,11 @@
           <t>Data integration and analytics platform</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Lative</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>https://lative.io</t>
@@ -10459,7 +11207,11 @@
           <t>Revenue operations and lead management platform</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Lean</t>
+        </is>
+      </c>
       <c r="D230" t="inlineStr">
         <is>
           <t>https://www.leandata.com</t>
@@ -10502,7 +11254,11 @@
           <t>Enterprise architecture management platform</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Leanix</t>
+        </is>
+      </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>https://www.leanix.net</t>
@@ -10545,7 +11301,11 @@
           <t>Legal compliance and regulatory management</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Legisway</t>
+        </is>
+      </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>https://www.legisway.com</t>
@@ -10588,7 +11348,11 @@
           <t>Legal research and information services</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Lexisnexis</t>
+        </is>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>https://www.lexisnexis.com</t>
@@ -10631,7 +11395,11 @@
           <t>Professional development and online learning platform</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/learning</t>
@@ -10674,7 +11442,11 @@
           <t>Professional recruiting and talent acquisition</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>https://business.linkedin.com/talent-solutions/recruiter</t>
@@ -10717,7 +11489,11 @@
           <t>Social selling and sales intelligence platform</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>https://business.linkedin.com/sales-solutions/sales-navigator</t>
@@ -10760,7 +11536,11 @@
           <t>Salesforce integration and connectivity platform</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr"/>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Linkpoint</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>https://www.linkpoint.com</t>
@@ -10803,7 +11583,11 @@
           <t>Translation management for Adobe Experience Manager</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Lionbridge</t>
+        </is>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>https://www.lionbridge.com</t>
@@ -10846,7 +11630,11 @@
           <t>Translation management for Oracle Eloqua</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Lionbridge</t>
+        </is>
+      </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>https://www.lionbridge.com</t>
@@ -10936,7 +11724,11 @@
           <t>Remote access and support software</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Logmein</t>
+        </is>
+      </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>https://www.logmein.com</t>
@@ -10979,7 +11771,11 @@
           <t>RFP response management and automation platform</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Loopio</t>
+        </is>
+      </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>https://loopio.com</t>
@@ -11022,7 +11818,11 @@
           <t>Diagramming and visual collaboration platform</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Lucidchart</t>
+        </is>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>https://www.lucidchart.com</t>
@@ -11065,7 +11865,11 @@
           <t>Customer data platform and analytics</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>https://segment.com</t>
@@ -11108,7 +11912,11 @@
           <t>Predictive analytics for sales and marketing</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Madkudu</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>https://www.madkudu.com</t>
@@ -11198,7 +12006,11 @@
           <t>Financial services and payment processing</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr"/>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Mailfinance</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>https://www.mailfinance.com</t>
@@ -11241,7 +12053,11 @@
           <t>Address validation and correction service</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Mailstar</t>
+        </is>
+      </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>https://www.mailstar.com</t>
@@ -11284,7 +12100,11 @@
           <t>Location data and mapping platform</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr"/>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Mapbox</t>
+        </is>
+      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>https://www.mapbox.com</t>
@@ -11327,7 +12147,11 @@
           <t>Marketing data pipeline and workflow management</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Apache</t>
+        </is>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>https://airflow.apache.org</t>
@@ -11370,7 +12194,11 @@
           <t>Marketing proof of concept platform</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Marketing Poc</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>https://www.marketing-poc.com</t>
@@ -11413,7 +12241,11 @@
           <t>Music licensing and content platform</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Marmosetmusic</t>
+        </is>
+      </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>https://www.marmosetmusic.com</t>
@@ -11456,7 +12288,11 @@
           <t>Marketing analytics and reporting platform</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr"/>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Marvar</t>
+        </is>
+      </c>
       <c r="D253" t="inlineStr">
         <is>
           <t>https://www.marvar.com</t>
@@ -11499,7 +12335,11 @@
           <t>Web hosting and cloud services platform</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Mediatemple</t>
+        </is>
+      </c>
       <c r="D254" t="inlineStr">
         <is>
           <t>https://mediatemple.net</t>
@@ -11542,7 +12382,11 @@
           <t>Data quality and address verification services</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Melissa</t>
+        </is>
+      </c>
       <c r="D255" t="inlineStr">
         <is>
           <t>https://www.melissa.com</t>
@@ -11585,7 +12429,11 @@
           <t>Cloud-managed security camera system</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Cis</t>
+        </is>
+      </c>
       <c r="D256" t="inlineStr">
         <is>
           <t>https://meraki.cisco.com/products/security-cameras</t>
@@ -11910,7 +12758,11 @@
           <t>Email and cloud migration platform</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Bittitan</t>
+        </is>
+      </c>
       <c r="D263" t="inlineStr">
         <is>
           <t>https://www.bittitan.com/migrationwiz</t>
@@ -11953,7 +12805,11 @@
           <t>Military logistics and supply chain management</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Miles3</t>
+        </is>
+      </c>
       <c r="D264" t="inlineStr">
         <is>
           <t>https://www.miles3.com</t>
@@ -11996,7 +12852,11 @@
           <t>Activity monitoring and tracking service</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Miles Monitoring</t>
+        </is>
+      </c>
       <c r="D265" t="inlineStr">
         <is>
           <t>https://www.miles-monitoring.com</t>
@@ -12039,7 +12899,11 @@
           <t>List import and data management service</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Miles Import</t>
+        </is>
+      </c>
       <c r="D266" t="inlineStr">
         <is>
           <t>https://www.miles-import.com</t>
@@ -12082,7 +12946,11 @@
           <t>Email security and archiving platform</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Mimecast</t>
+        </is>
+      </c>
       <c r="D267" t="inlineStr">
         <is>
           <t>https://www.mimecast.com</t>
@@ -12125,7 +12993,11 @@
           <t>Brand protection and anti-phishing service</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Mimecast</t>
+        </is>
+      </c>
       <c r="D268" t="inlineStr">
         <is>
           <t>https://www.mimecast.com/products/brand-exploit-protect</t>
@@ -12168,7 +13040,11 @@
           <t>Channel partner marketing platform</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Mindmatrix</t>
+        </is>
+      </c>
       <c r="D269" t="inlineStr">
         <is>
           <t>https://mindmatrix.net</t>
@@ -12211,7 +13087,11 @@
           <t>Online collaborative whiteboard platform</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Miro</t>
+        </is>
+      </c>
       <c r="D270" t="inlineStr">
         <is>
           <t>https://miro.com</t>
@@ -12254,7 +13134,11 @@
           <t>Work operating system and project management</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
       <c r="D271" t="inlineStr">
         <is>
           <t>https://monday.com</t>
@@ -12297,7 +13181,11 @@
           <t>NoSQL database management system</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Mongodb</t>
+        </is>
+      </c>
       <c r="D272" t="inlineStr">
         <is>
           <t>https://www.mongodb.com</t>
@@ -12340,7 +13228,11 @@
           <t>Workflow automation and integration platform</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>N8n</t>
+        </is>
+      </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>https://n8n.io</t>
@@ -12383,7 +13275,11 @@
           <t>Content distribution and management engine</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Ncsquared</t>
+        </is>
+      </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>https://www.ncsquared.com</t>
@@ -12426,7 +13322,11 @@
           <t>Automated testing tool for .NET development</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Ncrunch</t>
+        </is>
+      </c>
       <c r="D275" t="inlineStr">
         <is>
           <t>https://www.ncrunch.net</t>
@@ -12469,7 +13369,11 @@
           <t>Network Device Interface for video production</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Ndi</t>
+        </is>
+      </c>
       <c r="D276" t="inlineStr">
         <is>
           <t>https://www.ndi.tv</t>
@@ -12512,7 +13416,11 @@
           <t>Vulnerability assessment and management platform</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Tenable</t>
+        </is>
+      </c>
       <c r="D277" t="inlineStr">
         <is>
           <t>https://www.tenable.com/products/nessus</t>
@@ -12555,7 +13463,11 @@
           <t>Cloud-based ERP and business management suite</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Netsuite</t>
+        </is>
+      </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>https://www.netsuite.com</t>
@@ -12598,7 +13510,11 @@
           <t>Electronic invoicing support and management</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Netsuite</t>
+        </is>
+      </c>
       <c r="D279" t="inlineStr">
         <is>
           <t>https://www.netsuite.com/portal/platform/developer/ecommerce</t>
@@ -12641,7 +13557,11 @@
           <t>Hyperconverged infrastructure and cloud platform</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr"/>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Nutanix</t>
+        </is>
+      </c>
       <c r="D280" t="inlineStr">
         <is>
           <t>https://www.nutanix.com</t>
@@ -12684,7 +13604,11 @@
           <t>IT inventory management and surveying tool</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Ocsinventory Ng</t>
+        </is>
+      </c>
       <c r="D281" t="inlineStr">
         <is>
           <t>https://www.ocsinventory-ng.org</t>
@@ -12727,7 +13651,11 @@
           <t>Identity and access management platform</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Okta</t>
+        </is>
+      </c>
       <c r="D282" t="inlineStr">
         <is>
           <t>https://www.okta.com</t>
@@ -12770,7 +13698,11 @@
           <t>Digital transformation and consulting platform</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Olono</t>
+        </is>
+      </c>
       <c r="D283" t="inlineStr">
         <is>
           <t>https://www.olono.com</t>
@@ -12813,7 +13745,11 @@
           <t>Omnichannel retail and inventory management</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Omni</t>
+        </is>
+      </c>
       <c r="D284" t="inlineStr">
         <is>
           <t>https://www.omni.com</t>
@@ -12856,7 +13792,11 @@
           <t>Digital experience platform for webinars and events</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>On24</t>
+        </is>
+      </c>
       <c r="D285" t="inlineStr">
         <is>
           <t>https://www.on24.com</t>
@@ -12899,7 +13839,11 @@
           <t>Privacy, security, and third-party risk platform</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Onetrust</t>
+        </is>
+      </c>
       <c r="D286" t="inlineStr">
         <is>
           <t>https://www.onetrust.com</t>
@@ -12942,7 +13886,11 @@
           <t>IT asset management and workflow automation</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Oomnitza</t>
+        </is>
+      </c>
       <c r="D287" t="inlineStr">
         <is>
           <t>https://www.oomnitza.com</t>
@@ -13032,7 +13980,11 @@
           <t>Cybersecurity and threat detection platform</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Outpost24</t>
+        </is>
+      </c>
       <c r="D289" t="inlineStr">
         <is>
           <t>https://www.outpost24.com</t>
@@ -13075,7 +14027,11 @@
           <t>Sales engagement and automation platform</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Outreach</t>
+        </is>
+      </c>
       <c r="D290" t="inlineStr">
         <is>
           <t>https://www.outreach.io</t>
@@ -13118,7 +14074,11 @@
           <t>Structured document authoring tool</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Oxygenxml</t>
+        </is>
+      </c>
       <c r="D291" t="inlineStr">
         <is>
           <t>https://www.oxygenxml.com/xml_author.html</t>
@@ -13161,7 +14121,11 @@
           <t>XML development and editing environment</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Oxygenxml</t>
+        </is>
+      </c>
       <c r="D292" t="inlineStr">
         <is>
           <t>https://www.oxygenxml.com/xml_editor.html</t>
@@ -13204,7 +14168,11 @@
           <t>Web-based help system and documentation</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Oxygenxml</t>
+        </is>
+      </c>
       <c r="D293" t="inlineStr">
         <is>
           <t>https://www.oxygenxml.com/xml_webhelp.html</t>
@@ -13247,7 +14215,11 @@
           <t>Component-based authoring and publishing platform</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Paligo</t>
+        </is>
+      </c>
       <c r="D294" t="inlineStr">
         <is>
           <t>https://paligo.net</t>
@@ -13290,7 +14262,11 @@
           <t>Security logging and analytics service</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Paloalto</t>
+        </is>
+      </c>
       <c r="D295" t="inlineStr">
         <is>
           <t>https://www.paloaltonetworks.com/cortex/cortex-data-lake</t>
@@ -13333,7 +14309,11 @@
           <t>Partner success management and automation</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Partnersuccess</t>
+        </is>
+      </c>
       <c r="D296" t="inlineStr">
         <is>
           <t>https://www.partnersuccess.com</t>
@@ -13376,7 +14356,11 @@
           <t>Third-party software update management</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Patchmypc</t>
+        </is>
+      </c>
       <c r="D297" t="inlineStr">
         <is>
           <t>https://patchmypc.com</t>
@@ -13419,7 +14403,11 @@
           <t>Payment processing platform for India</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Paysquare</t>
+        </is>
+      </c>
       <c r="D298" t="inlineStr">
         <is>
           <t>https://www.paysquare.com</t>
@@ -13462,7 +14450,11 @@
           <t>Payroll and human capital management platform</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Paylocity</t>
+        </is>
+      </c>
       <c r="D299" t="inlineStr">
         <is>
           <t>https://www.paylocity.com</t>
@@ -13505,7 +14497,11 @@
           <t>Payment processing and acceptance application</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Paymentacceptance</t>
+        </is>
+      </c>
       <c r="D300" t="inlineStr">
         <is>
           <t>https://www.paymentacceptance.com</t>
@@ -13548,7 +14544,11 @@
           <t>Compensation data and salary benchmarking</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr"/>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Payscale</t>
+        </is>
+      </c>
       <c r="D301" t="inlineStr">
         <is>
           <t>https://www.payscale.com</t>
@@ -13591,7 +14591,11 @@
           <t>PDF to Excel conversion tool</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Pdf2xl</t>
+        </is>
+      </c>
       <c r="D302" t="inlineStr">
         <is>
           <t>https://www.pdf2xl.com</t>
@@ -13634,7 +14638,11 @@
           <t>Phishing simulation and security awareness training</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Cofense</t>
+        </is>
+      </c>
       <c r="D303" t="inlineStr">
         <is>
           <t>https://cofense.com</t>
@@ -13771,7 +14779,11 @@
           <t>Website monitoring and performance analytics</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr"/>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Pingdom</t>
+        </is>
+      </c>
       <c r="D306" t="inlineStr">
         <is>
           <t>https://www.pingdom.com</t>
@@ -13814,7 +14826,11 @@
           <t>Private market data and research platform</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr"/>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Pitchbook</t>
+        </is>
+      </c>
       <c r="D307" t="inlineStr">
         <is>
           <t>https://pitchbook.com</t>
@@ -13857,7 +14873,11 @@
           <t>Industrial IoT and asset monitoring platform</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr"/>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Plantio</t>
+        </is>
+      </c>
       <c r="D308" t="inlineStr">
         <is>
           <t>https://www.plantio.com</t>
@@ -13900,7 +14920,11 @@
           <t>Plant monitoring and management application</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr"/>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
       <c r="D309" t="inlineStr">
         <is>
           <t>https://plantapp.io</t>
@@ -13943,7 +14967,11 @@
           <t>Data analysis and investigation tool</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Poirot</t>
+        </is>
+      </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>https://www.poirot.com</t>
@@ -13986,7 +15014,11 @@
           <t>Semantic technology and knowledge management</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Poolparty</t>
+        </is>
+      </c>
       <c r="D311" t="inlineStr">
         <is>
           <t>https://www.poolparty.biz</t>
@@ -14029,7 +15061,11 @@
           <t>Web application security testing tools</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr"/>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Portswigger</t>
+        </is>
+      </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>https://portswigger.net</t>
@@ -14072,7 +15108,11 @@
           <t>PostgreSQL client for macOS</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr"/>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Egger</t>
+        </is>
+      </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>https://eggerapps.at/postico</t>
@@ -14115,7 +15155,11 @@
           <t>API development and testing platform</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr"/>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Postman</t>
+        </is>
+      </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>https://www.postman.com</t>
@@ -14205,7 +15249,11 @@
           <t>Data integrity and location intelligence platform</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr"/>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Precisely</t>
+        </is>
+      </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>https://www.precisely.com</t>
@@ -14248,7 +15296,11 @@
           <t>Talent optimization and performance platform</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr"/>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Predictiveindex</t>
+        </is>
+      </c>
       <c r="D317" t="inlineStr">
         <is>
           <t>https://www.predictiveindex.com</t>
@@ -14291,7 +15343,11 @@
           <t>Royalty-free music and audio platform</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr"/>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Premiumbeat</t>
+        </is>
+      </c>
       <c r="D318" t="inlineStr">
         <is>
           <t>https://www.premiumbeat.com</t>
@@ -14334,7 +15390,11 @@
           <t>Web application security scanner</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr"/>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Acunetix</t>
+        </is>
+      </c>
       <c r="D319" t="inlineStr">
         <is>
           <t>https://www.acunetix.com</t>
@@ -14377,7 +15437,11 @@
           <t>AI-powered security engineering assistant</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr"/>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Alfa Security</t>
+        </is>
+      </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>https://www.alfa-security.com</t>
@@ -14420,7 +15484,11 @@
           <t>Application security offboarding automation</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Appsec Automation</t>
+        </is>
+      </c>
       <c r="D321" t="inlineStr">
         <is>
           <t>https://www.appsec-automation.com</t>
@@ -14463,7 +15531,11 @@
           <t>Capture the Flag cybersecurity training platform</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr"/>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Avattacks</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>https://www.avattacks.com</t>
@@ -14553,7 +15625,11 @@
           <t>Application security testing platform</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Checkmarx</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>https://checkmarx.com</t>
@@ -14596,7 +15672,11 @@
           <t>Certificate and secret management system</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr"/>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Ccsm</t>
+        </is>
+      </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>https://www.ccsm.com</t>
@@ -14639,7 +15719,11 @@
           <t>Application security and dependency management</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Endor</t>
+        </is>
+      </c>
       <c r="D326" t="inlineStr">
         <is>
           <t>https://www.endorlabs.com</t>
@@ -14682,7 +15766,11 @@
           <t>Threat modeling and risk management platform</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr"/>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Iriusrisk</t>
+        </is>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>https://www.iriusrisk.com</t>
@@ -14725,7 +15813,11 @@
           <t>Open source security and compliance platform</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Mend</t>
+        </is>
+      </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>https://www.mend.io</t>
@@ -14815,7 +15907,11 @@
           <t>Secure backup and recovery for secrets management</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Secretsbackup</t>
+        </is>
+      </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>https://www.secretsbackup.com</t>
@@ -14858,7 +15954,11 @@
           <t>SQL and database artificial intelligence platform</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Sqai</t>
+        </is>
+      </c>
       <c r="D331" t="inlineStr">
         <is>
           <t>https://www.sqai.com</t>
@@ -14901,7 +16001,11 @@
           <t>Employee termination and audit logging system</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr"/>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Terminationlogging</t>
+        </is>
+      </c>
       <c r="D332" t="inlineStr">
         <is>
           <t>https://www.terminationlogging.com</t>
@@ -14991,7 +16095,11 @@
           <t>Security assessment and purple team platform</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr"/>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Vectr</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>https://vectr.io</t>
@@ -15034,7 +16142,11 @@
           <t>Learning management course assignment tool</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr"/>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Workramp</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>https://www.workramp.com</t>
@@ -15124,7 +16236,11 @@
           <t>Open-source monitoring and alerting toolkit</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Prometheus</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>https://prometheus.io</t>
@@ -15167,7 +16283,11 @@
           <t>Cybersecurity and compliance platform</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Proofpoint</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>https://www.proofpoint.com</t>
@@ -15210,7 +16330,11 @@
           <t>Cloud Access Security Broker solution</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr"/>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Proofpoint</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>https://www.proofpoint.com/us/products/cloud-security/cloud-access-security-broker</t>
@@ -15253,7 +16377,11 @@
           <t>Data Loss Prevention security solution</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Proofpoint</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>https://www.proofpoint.com/us/products/information-protection/data-loss-prevention</t>
@@ -15296,7 +16424,11 @@
           <t>Configure, Price, Quote solution for complex selling</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Pros</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>https://pros.com/products/configure-price-quote</t>
@@ -15339,7 +16471,11 @@
           <t>International prospect database and routing service</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Prospectdatabase</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>https://www.prospectdatabase.com</t>
@@ -15382,7 +16518,11 @@
           <t>Network monitoring and infrastructure management</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr"/>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Paessler</t>
+        </is>
+      </c>
       <c r="D343" t="inlineStr">
         <is>
           <t>https://www.paessler.com/prtg</t>
@@ -15425,7 +16565,11 @@
           <t>Real-time dashboard and analytics platform</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr"/>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Pulseboard</t>
+        </is>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
           <t>https://www.pulseboard.com</t>
@@ -15468,7 +16612,11 @@
           <t>Low-code application development platform</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Quickbase</t>
+        </is>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
           <t>https://www.quickbase.com</t>
@@ -15511,7 +16659,11 @@
           <t>Experience management and survey platform</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Qualtrics</t>
+        </is>
+      </c>
       <c r="D346" t="inlineStr">
         <is>
           <t>https://www.qualtrics.com</t>
@@ -15554,7 +16706,11 @@
           <t>Desktop publishing and layout design software</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr"/>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Quark</t>
+        </is>
+      </c>
       <c r="D347" t="inlineStr">
         <is>
           <t>https://www.quark.com/products/quarkxpress</t>
@@ -15597,7 +16753,11 @@
           <t>Cloud-native data platform and analytics</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr"/>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Qubole</t>
+        </is>
+      </c>
       <c r="D348" t="inlineStr">
         <is>
           <t>https://www.qubole.com</t>
@@ -15640,7 +16800,11 @@
           <t>IT change tracking and compliance auditing</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr"/>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Quest</t>
+        </is>
+      </c>
       <c r="D349" t="inlineStr">
         <is>
           <t>https://www.quest.com/products/change-auditor</t>
@@ -15683,7 +16847,11 @@
           <t>Accounting and financial management software</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr"/>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Intuit</t>
+        </is>
+      </c>
       <c r="D350" t="inlineStr">
         <is>
           <t>https://quickbooks.intuit.com</t>
@@ -15726,7 +16894,11 @@
           <t>Ransomware response and recovery orchestration</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr"/>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Ransomwareorchestration</t>
+        </is>
+      </c>
       <c r="D351" t="inlineStr">
         <is>
           <t>https://www.ransomwareorchestration.com</t>
@@ -15769,7 +16941,11 @@
           <t>Backup audit and compliance management</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr"/>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Backupaudit</t>
+        </is>
+      </c>
       <c r="D352" t="inlineStr">
         <is>
           <t>https://www.backupaudit.com</t>
@@ -15812,7 +16988,11 @@
           <t>Security analytics and vulnerability management</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr"/>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
       <c r="D353" t="inlineStr">
         <is>
           <t>https://www.rapid7.com</t>
@@ -15902,7 +17082,11 @@
           <t>Centralized monitoring and observability platform</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr"/>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Grafana</t>
+        </is>
+      </c>
       <c r="D355" t="inlineStr">
         <is>
           <t>https://grafana.com</t>
@@ -15945,7 +17129,11 @@
           <t>Database as a Service platform</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr"/>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Dbaas</t>
+        </is>
+      </c>
       <c r="D356" t="inlineStr">
         <is>
           <t>https://www.dbaas.com</t>
@@ -16035,7 +17223,11 @@
           <t>Internal domain name system management</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Internaldns</t>
+        </is>
+      </c>
       <c r="D358" t="inlineStr">
         <is>
           <t>https://www.internaldns.com</t>
@@ -16078,7 +17270,11 @@
           <t>Open source relational database management system</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr"/>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Postgresql</t>
+        </is>
+      </c>
       <c r="D359" t="inlineStr">
         <is>
           <t>https://www.postgresql.org</t>
@@ -16121,7 +17317,11 @@
           <t>Remote access jump server management</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr"/>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Rele</t>
+        </is>
+      </c>
       <c r="D360" t="inlineStr">
         <is>
           <t>https://www.rele.com</t>
@@ -16164,7 +17364,11 @@
           <t>Cloud-native security and observability platform</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Sumologic</t>
+        </is>
+      </c>
       <c r="D361" t="inlineStr">
         <is>
           <t>https://www.sumologic.com</t>
@@ -16207,7 +17411,11 @@
           <t>Machine identity protection and certificate management</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr"/>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Venafi</t>
+        </is>
+      </c>
       <c r="D362" t="inlineStr">
         <is>
           <t>https://www.venafi.com</t>
@@ -16250,7 +17458,11 @@
           <t>Team retrospective and collaboration platform</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr"/>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Retrium</t>
+        </is>
+      </c>
       <c r="D363" t="inlineStr">
         <is>
           <t>https://www.retrium.com</t>
@@ -16293,7 +17505,11 @@
           <t>Transcription, captioning, and translation services</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr"/>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Rev</t>
+        </is>
+      </c>
       <c r="D364" t="inlineStr">
         <is>
           <t>https://www.rev.com</t>
@@ -16336,7 +17552,11 @@
           <t>PDF markup and collaboration software for construction</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr"/>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Bluebeam</t>
+        </is>
+      </c>
       <c r="D365" t="inlineStr">
         <is>
           <t>https://www.bluebeam.com/solutions/revu</t>
@@ -16379,7 +17599,11 @@
           <t>Revenue recognition and accounting automation</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr"/>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Rightrev</t>
+        </is>
+      </c>
       <c r="D366" t="inlineStr">
         <is>
           <t>https://rightrev.com</t>
@@ -16422,7 +17646,11 @@
           <t>Cloud communications and contact center platform</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr"/>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Ringcentral</t>
+        </is>
+      </c>
       <c r="D367" t="inlineStr">
         <is>
           <t>https://www.ringcentral.com</t>
@@ -16465,7 +17693,11 @@
           <t>Contact center and customer experience platform</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr"/>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Niceincontact</t>
+        </is>
+      </c>
       <c r="D368" t="inlineStr">
         <is>
           <t>https://www.niceincontact.com</t>
@@ -16508,7 +17740,11 @@
           <t>Automated security and compliance monitoring</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr"/>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Robocop</t>
+        </is>
+      </c>
       <c r="D369" t="inlineStr">
         <is>
           <t>https://www.robocop.com</t>
@@ -16551,7 +17787,11 @@
           <t>Identity governance and administration platform</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr"/>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Sailpoint</t>
+        </is>
+      </c>
       <c r="D370" t="inlineStr">
         <is>
           <t>https://www.sailpoint.com</t>
@@ -17017,7 +18257,11 @@
           <t>Sales training and methodology platform</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr"/>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Salesmethods</t>
+        </is>
+      </c>
       <c r="D380" t="inlineStr">
         <is>
           <t>https://www.salesmethods.com</t>
@@ -17060,7 +18304,11 @@
           <t>External workforce and vendor management</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr"/>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Fieldglass</t>
+        </is>
+      </c>
       <c r="D381" t="inlineStr">
         <is>
           <t>https://www.fieldglass.com</t>
@@ -17103,7 +18351,11 @@
           <t>Customer experience and Net Promoter Score platform</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr"/>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
       <c r="D382" t="inlineStr">
         <is>
           <t>https://www.nice.com/products/cx-analytics/customer-analytics/satmetrix</t>
@@ -17146,7 +18398,11 @@
           <t>SEO website crawler and technical audit tool</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr"/>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Screamingfrog</t>
+        </is>
+      </c>
       <c r="D383" t="inlineStr">
         <is>
           <t>https://www.screamingfrog.co.uk</t>
@@ -17189,7 +18445,11 @@
           <t>Human resources and payroll services platform</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr"/>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Sdworx</t>
+        </is>
+      </c>
       <c r="D384" t="inlineStr">
         <is>
           <t>https://www.sdworx.com</t>
@@ -17232,7 +18492,11 @@
           <t>Document security and protection platform</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr"/>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Securesheet</t>
+        </is>
+      </c>
       <c r="D385" t="inlineStr">
         <is>
           <t>https://www.securesheet.com</t>
@@ -17275,7 +18539,11 @@
           <t>Managed security services and threat intelligence</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr"/>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Secureworks</t>
+        </is>
+      </c>
       <c r="D386" t="inlineStr">
         <is>
           <t>https://www.secureworks.com</t>
@@ -17318,7 +18586,11 @@
           <t>Security data synchronization and integration</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr"/>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Securitydatasync</t>
+        </is>
+      </c>
       <c r="D387" t="inlineStr">
         <is>
           <t>https://www.securitydatasync.com</t>
@@ -17361,7 +18633,11 @@
           <t>Security ratings and vendor risk management</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr"/>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Securityscorecard</t>
+        </is>
+      </c>
       <c r="D388" t="inlineStr">
         <is>
           <t>https://securityscorecard.com</t>
@@ -17404,7 +18680,11 @@
           <t>SEO content optimization and marketing tool</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr"/>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Semrush</t>
+        </is>
+      </c>
       <c r="D389" t="inlineStr">
         <is>
           <t>https://www.semrush.com</t>
@@ -17447,7 +18727,11 @@
           <t>Digital marketing and SEO analytics platform</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr"/>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Semrush</t>
+        </is>
+      </c>
       <c r="D390" t="inlineStr">
         <is>
           <t>https://www.semrush.com</t>
@@ -17490,7 +18774,11 @@
           <t>Email delivery and marketing platform</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr"/>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Sendgrid</t>
+        </is>
+      </c>
       <c r="D391" t="inlineStr">
         <is>
           <t>https://sendgrid.com</t>
@@ -17533,7 +18821,11 @@
           <t>Direct mail and gifting automation platform</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr"/>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Sendoso</t>
+        </is>
+      </c>
       <c r="D392" t="inlineStr">
         <is>
           <t>https://sendoso.com</t>
@@ -17576,7 +18868,11 @@
           <t>Digital signature and payment processing</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr"/>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Sertifi</t>
+        </is>
+      </c>
       <c r="D393" t="inlineStr">
         <is>
           <t>https://www.sertifi.com</t>
@@ -17619,7 +18915,11 @@
           <t>Digital workflow and IT service management platform</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr"/>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Servicenow</t>
+        </is>
+      </c>
       <c r="D394" t="inlineStr">
         <is>
           <t>https://www.servicenow.com</t>
@@ -17662,7 +18962,11 @@
           <t>IT asset management within ServiceNow</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr"/>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Servicenow</t>
+        </is>
+      </c>
       <c r="D395" t="inlineStr">
         <is>
           <t>https://www.servicenow.com/products/it-asset-management.html</t>
@@ -17705,7 +19009,11 @@
           <t>IT service management and support platform</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr"/>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Servicenow</t>
+        </is>
+      </c>
       <c r="D396" t="inlineStr">
         <is>
           <t>https://www.servicenow.com/products/itsm.html</t>
@@ -17748,7 +19056,11 @@
           <t>Security operations within ServiceNow</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr"/>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Servicenow</t>
+        </is>
+      </c>
       <c r="D397" t="inlineStr">
         <is>
           <t>https://www.servicenow.com/products/security-operations.html</t>
@@ -17791,7 +19103,11 @@
           <t>Service management and skills tracking platform</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr"/>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Serviceskills</t>
+        </is>
+      </c>
       <c r="D398" t="inlineStr">
         <is>
           <t>https://www.serviceskills.com</t>
@@ -17834,7 +19150,11 @@
           <t>.NET web services framework and platform</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr"/>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Servicestack</t>
+        </is>
+      </c>
       <c r="D399" t="inlineStr">
         <is>
           <t>https://servicestack.net</t>
@@ -17924,7 +19244,11 @@
           <t>Digital identity verification and case management</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr"/>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Signicat</t>
+        </is>
+      </c>
       <c r="D401" t="inlineStr">
         <is>
           <t>https://www.signicat.com</t>
@@ -17967,7 +19291,11 @@
           <t>Employee experience and intranet platform</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr"/>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Simpplr</t>
+        </is>
+      </c>
       <c r="D402" t="inlineStr">
         <is>
           <t>https://www.simpplr.com</t>
@@ -18010,7 +19338,11 @@
           <t>Business intelligence and analytics platform</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr"/>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Sisense</t>
+        </is>
+      </c>
       <c r="D403" t="inlineStr">
         <is>
           <t>https://www.sisense.com</t>
@@ -18053,7 +19385,11 @@
           <t>AI-powered mobile attribution and analytics</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr"/>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Skan</t>
+        </is>
+      </c>
       <c r="D404" t="inlineStr">
         <is>
           <t>https://skan.ai</t>
@@ -18096,7 +19432,11 @@
           <t>Digital design and prototyping platform</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr"/>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Sketch</t>
+        </is>
+      </c>
       <c r="D405" t="inlineStr">
         <is>
           <t>https://www.sketch.com</t>
@@ -18139,7 +19479,11 @@
           <t>Customer training and education platform</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr"/>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Skilljar</t>
+        </is>
+      </c>
       <c r="D406" t="inlineStr">
         <is>
           <t>https://www.skilljar.com</t>
@@ -18182,7 +19526,11 @@
           <t>Software development kit documentation platform</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr"/>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Skylab</t>
+        </is>
+      </c>
       <c r="D407" t="inlineStr">
         <is>
           <t>https://www.skylab.com</t>
@@ -18225,7 +19573,11 @@
           <t>Cloud hosting for traditional enterprise applications</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr"/>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Skytap</t>
+        </is>
+      </c>
       <c r="D408" t="inlineStr">
         <is>
           <t>https://www.skytap.com</t>
@@ -18268,7 +19620,11 @@
           <t>Employee recognition and engagement platform</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr"/>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Slapfive</t>
+        </is>
+      </c>
       <c r="D409" t="inlineStr">
         <is>
           <t>https://www.slapfive.com</t>
@@ -18311,7 +19667,11 @@
           <t>PowerPoint templates and presentation resources</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr"/>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Slideteam</t>
+        </is>
+      </c>
       <c r="D410" t="inlineStr">
         <is>
           <t>https://www.slideteam.net</t>
@@ -18354,7 +19714,11 @@
           <t>Software testing and development tools platform</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr"/>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>SmartBear</t>
+        </is>
+      </c>
       <c r="D411" t="inlineStr">
         <is>
           <t>https://smartbear.com</t>
@@ -18397,7 +19761,11 @@
           <t>Diagramming and flowchart software</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr"/>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Smartdraw</t>
+        </is>
+      </c>
       <c r="D412" t="inlineStr">
         <is>
           <t>https://www.smartdraw.com</t>
@@ -18440,7 +19808,11 @@
           <t>Translation management and localization platform</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr"/>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Smartling</t>
+        </is>
+      </c>
       <c r="D413" t="inlineStr">
         <is>
           <t>https://www.smartling.com</t>
@@ -18483,7 +19855,11 @@
           <t>Work management and automation platform</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Smartsheet</t>
+        </is>
+      </c>
       <c r="D414" t="inlineStr">
         <is>
           <t>https://www.smartsheet.com</t>
@@ -18526,7 +19902,11 @@
           <t>Address validation and geocoding API</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr"/>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>SmartyStreets</t>
+        </is>
+      </c>
       <c r="D415" t="inlineStr">
         <is>
           <t>https://www.smartystreets.com</t>
@@ -18569,7 +19949,11 @@
           <t>Screen capture and image editing software</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr"/>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Techsmith</t>
+        </is>
+      </c>
       <c r="D416" t="inlineStr">
         <is>
           <t>https://www.techsmith.com/screen-capture.html</t>
@@ -18753,7 +20137,11 @@
           <t>API testing and service virtualization platform</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr"/>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Soapui</t>
+        </is>
+      </c>
       <c r="D420" t="inlineStr">
         <is>
           <t>https://www.soapui.org</t>
@@ -18796,7 +20184,11 @@
           <t>Technology solutions and services provider</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr"/>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Softchoice</t>
+        </is>
+      </c>
       <c r="D421" t="inlineStr">
         <is>
           <t>https://www.softchoice.com</t>
@@ -18839,7 +20231,11 @@
           <t>IT infrastructure monitoring and management</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr"/>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Solarwinds</t>
+        </is>
+      </c>
       <c r="D422" t="inlineStr">
         <is>
           <t>https://www.solarwinds.com</t>
@@ -18882,7 +20278,11 @@
           <t>Code quality and security analysis platform</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr"/>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Sonarqube</t>
+        </is>
+      </c>
       <c r="D423" t="inlineStr">
         <is>
           <t>https://www.sonarqube.org</t>
@@ -18925,7 +20325,11 @@
           <t>Video creation and animation software</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr"/>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Sparkol</t>
+        </is>
+      </c>
       <c r="D424" t="inlineStr">
         <is>
           <t>https://www.sparkol.com</t>
@@ -19438,7 +20842,11 @@
           <t>Fire suppression system replacement project</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr"/>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Sprinklerreplacement</t>
+        </is>
+      </c>
       <c r="D435" t="inlineStr">
         <is>
           <t>https://www.sprinklerreplacement.com</t>
@@ -19481,7 +20889,11 @@
           <t>Structured Query Language database management</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr"/>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Sql</t>
+        </is>
+      </c>
       <c r="D436" t="inlineStr">
         <is>
           <t>https://www.sql.org</t>
@@ -19524,7 +20936,11 @@
           <t>SQL Server Integration Services for PostgreSQL</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr"/>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Postgresql</t>
+        </is>
+      </c>
       <c r="D437" t="inlineStr">
         <is>
           <t>https://www.postgresql.org/docs/current/datatype.html</t>
@@ -19567,7 +20983,11 @@
           <t>SSL certificate provider and marketplace</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr"/>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Thesslstore</t>
+        </is>
+      </c>
       <c r="D438" t="inlineStr">
         <is>
           <t>https://www.thesslstore.com</t>
@@ -19610,7 +21030,11 @@
           <t>Cloud governance and compliance automation</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr"/>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Stacklet</t>
+        </is>
+      </c>
       <c r="D439" t="inlineStr">
         <is>
           <t>https://stacklet.io</t>
@@ -19653,7 +21077,11 @@
           <t>Statistical software package for data analysis</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr"/>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Stata</t>
+        </is>
+      </c>
       <c r="D440" t="inlineStr">
         <is>
           <t>https://www.stata.com</t>
@@ -19696,7 +21124,11 @@
           <t>Market and consumer data platform</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr"/>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Statista</t>
+        </is>
+      </c>
       <c r="D441" t="inlineStr">
         <is>
           <t>https://www.statista.com</t>
@@ -19739,7 +21171,11 @@
           <t>Background check and employment screening</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr"/>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Sterlingcheck</t>
+        </is>
+      </c>
       <c r="D442" t="inlineStr">
         <is>
           <t>https://www.sterlingcheck.com</t>
@@ -19782,7 +21218,11 @@
           <t>Data integration and ETL platform</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr"/>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Stitch</t>
+        </is>
+      </c>
       <c r="D443" t="inlineStr">
         <is>
           <t>https://www.stitchdata.com</t>
@@ -19825,7 +21265,11 @@
           <t>Zero trust privileged access management</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr"/>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Strongdm</t>
+        </is>
+      </c>
       <c r="D444" t="inlineStr">
         <is>
           <t>https://www.strongdm.com</t>
@@ -19868,7 +21312,11 @@
           <t>Online survey and feedback platform</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr"/>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Surveymonkey</t>
+        </is>
+      </c>
       <c r="D445" t="inlineStr">
         <is>
           <t>https://www.surveymonkey.com</t>
@@ -19911,7 +21359,11 @@
           <t>Customer communication and engagement platform</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr"/>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Sush</t>
+        </is>
+      </c>
       <c r="D446" t="inlineStr">
         <is>
           <t>https://sush.io</t>
@@ -19954,7 +21406,11 @@
           <t>SVG animation creation platform</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr"/>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Svgator</t>
+        </is>
+      </c>
       <c r="D447" t="inlineStr">
         <is>
           <t>https://www.svgator.com</t>
@@ -19997,7 +21453,11 @@
           <t>API documentation and design platform</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr"/>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Swagger</t>
+        </is>
+      </c>
       <c r="D448" t="inlineStr">
         <is>
           <t>https://swagger.io</t>
@@ -20040,7 +21500,11 @@
           <t>Software security and quality testing platform</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr"/>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Synopsys</t>
+        </is>
+      </c>
       <c r="D449" t="inlineStr">
         <is>
           <t>https://www.synopsys.com</t>
@@ -20083,7 +21547,11 @@
           <t>Data visualization and business intelligence platform</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr"/>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Tableau</t>
+        </is>
+      </c>
       <c r="D450" t="inlineStr">
         <is>
           <t>https://www.tableau.com</t>
@@ -20126,7 +21594,11 @@
           <t>Cloud marketplace and partner ecosystem platform</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr"/>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Tackle</t>
+        </is>
+      </c>
       <c r="D451" t="inlineStr">
         <is>
           <t>https://tackle.io</t>
@@ -20169,7 +21641,11 @@
           <t>Web tagging and analytics management</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr"/>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Tagspider</t>
+        </is>
+      </c>
       <c r="D452" t="inlineStr">
         <is>
           <t>https://www.tagspider.com</t>
@@ -20212,7 +21688,11 @@
           <t>Data integration and management platform</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr"/>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Talend</t>
+        </is>
+      </c>
       <c r="D453" t="inlineStr">
         <is>
           <t>https://www.talend.com</t>
@@ -20255,7 +21735,11 @@
           <t>Enterprise resource planning and accounting software</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr"/>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Tally</t>
+        </is>
+      </c>
       <c r="D454" t="inlineStr">
         <is>
           <t>https://tallysolutions.com</t>
@@ -20298,7 +21782,11 @@
           <t>Endpoint management and security platform</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr"/>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Tanium</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr">
         <is>
           <t>https://www.tanium.com</t>
@@ -20341,7 +21829,11 @@
           <t>Contingent workforce management platform</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr"/>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Targetcw</t>
+        </is>
+      </c>
       <c r="D456" t="inlineStr">
         <is>
           <t>https://www.targetcw.com</t>
@@ -20384,7 +21876,11 @@
           <t>Secure file transfer for tax compliance</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr"/>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Taxcompliancesftp</t>
+        </is>
+      </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>https://www.taxcompliancesftp.com</t>
@@ -20427,7 +21923,11 @@
           <t>Tax rate data and calculation service</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr"/>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Taxrates</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>https://taxrates.com</t>
@@ -20470,7 +21970,11 @@
           <t>Remote access and support software</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr"/>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>TeamViewer</t>
+        </is>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
           <t>https://www.teamviewer.com</t>
@@ -20513,7 +22017,11 @@
           <t>Vulnerability management and cyber exposure platform</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr"/>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Tenable</t>
+        </is>
+      </c>
       <c r="D460" t="inlineStr">
         <is>
           <t>https://www.tenable.com</t>
@@ -20556,7 +22064,11 @@
           <t>Automated UI testing platform</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr"/>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>SmartBear</t>
+        </is>
+      </c>
       <c r="D461" t="inlineStr">
         <is>
           <t>https://smartbear.com/product/testcomplete</t>
@@ -20599,7 +22111,11 @@
           <t>Automated testing framework and platform</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr"/>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Testharness</t>
+        </is>
+      </c>
       <c r="D462" t="inlineStr">
         <is>
           <t>https://www.testharness.com</t>
@@ -20642,7 +22158,11 @@
           <t>Test case management and QA platform</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr"/>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Gurock</t>
+        </is>
+      </c>
       <c r="D463" t="inlineStr">
         <is>
           <t>https://www.gurock.com/testrail</t>
@@ -20685,7 +22205,11 @@
           <t>Marketing technology consulting and services</t>
         </is>
       </c>
-      <c r="C464" t="inlineStr"/>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Themartec</t>
+        </is>
+      </c>
       <c r="D464" t="inlineStr">
         <is>
           <t>https://www.themartec.com</t>
@@ -20728,7 +22252,11 @@
           <t>PowerPoint charting and presentation software</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr"/>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Think Cell</t>
+        </is>
+      </c>
       <c r="D465" t="inlineStr">
         <is>
           <t>https://www.think-cell.com</t>
@@ -20771,7 +22299,11 @@
           <t>Network security monitoring and honeypot platform</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr"/>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Canary</t>
+        </is>
+      </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>https://canary.tools</t>
@@ -20814,7 +22346,11 @@
           <t>Privileged access management and secrets management</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr"/>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Thycotic</t>
+        </is>
+      </c>
       <c r="D467" t="inlineStr">
         <is>
           <t>https://thycotic.com</t>
@@ -20857,7 +22393,11 @@
           <t>Security automation and orchestration platform</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr"/>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Tines</t>
+        </is>
+      </c>
       <c r="D468" t="inlineStr">
         <is>
           <t>https://www.tines.com</t>
@@ -20900,7 +22440,11 @@
           <t>Employee engagement and feedback platform</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr"/>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Tinypulse</t>
+        </is>
+      </c>
       <c r="D469" t="inlineStr">
         <is>
           <t>https://www.tinypulse.com</t>
@@ -20943,7 +22487,11 @@
           <t>Time tracking and productivity management</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr"/>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Toggl</t>
+        </is>
+      </c>
       <c r="D470" t="inlineStr">
         <is>
           <t>https://toggl.com</t>
@@ -20986,7 +22534,11 @@
           <t>Animated video creation platform</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr"/>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Toonly</t>
+        </is>
+      </c>
       <c r="D471" t="inlineStr">
         <is>
           <t>https://www.toonly.com</t>
@@ -21029,7 +22581,11 @@
           <t>Learning management and compliance platform</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr"/>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Totaralearning</t>
+        </is>
+      </c>
       <c r="D472" t="inlineStr">
         <is>
           <t>https://www.totaralearning.com</t>
@@ -21072,7 +22628,11 @@
           <t>JavaScript error monitoring and tracking</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr"/>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Trackjs</t>
+        </is>
+      </c>
       <c r="D473" t="inlineStr">
         <is>
           <t>https://trackjs.com</t>
@@ -21115,7 +22675,11 @@
           <t>Continuous integration and deployment platform</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr"/>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Travis Ci</t>
+        </is>
+      </c>
       <c r="D474" t="inlineStr">
         <is>
           <t>https://travis-ci.org</t>
@@ -21158,7 +22722,11 @@
           <t>Technology review and comparison platform</t>
         </is>
       </c>
-      <c r="C475" t="inlineStr"/>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Trustradius</t>
+        </is>
+      </c>
       <c r="D475" t="inlineStr">
         <is>
           <t>https://www.trustradius.com</t>
@@ -21201,7 +22769,11 @@
           <t>Social media and microblogging platform</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr"/>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="D476" t="inlineStr">
         <is>
           <t>https://twitter.com</t>
@@ -21244,7 +22816,11 @@
           <t>Online learning and course platform</t>
         </is>
       </c>
-      <c r="C477" t="inlineStr"/>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Udemy</t>
+        </is>
+      </c>
       <c r="D477" t="inlineStr">
         <is>
           <t>https://www.udemy.com</t>
@@ -21287,7 +22863,11 @@
           <t>Engineering productivity and analytics platform</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr"/>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Uplevelteam</t>
+        </is>
+      </c>
       <c r="D478" t="inlineStr">
         <is>
           <t>https://www.uplevelteam.com</t>
@@ -21330,7 +22910,11 @@
           <t>Marketing planning and performance platform</t>
         </is>
       </c>
-      <c r="C479" t="inlineStr"/>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Uptempo</t>
+        </is>
+      </c>
       <c r="D479" t="inlineStr">
         <is>
           <t>https://www.uptempo.io</t>
@@ -21373,7 +22957,11 @@
           <t>Website scanning and threat analysis service</t>
         </is>
       </c>
-      <c r="C480" t="inlineStr"/>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Urlscan</t>
+        </is>
+      </c>
       <c r="D480" t="inlineStr">
         <is>
           <t>https://urlscan.io</t>
@@ -21416,7 +23004,11 @@
           <t>Tax and income calculation service</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr"/>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Incometax</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr">
         <is>
           <t>https://www.incometax.com</t>
@@ -21459,7 +23051,11 @@
           <t>User experience research and testing platform</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr"/>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>UserTesting</t>
+        </is>
+      </c>
       <c r="D482" t="inlineStr">
         <is>
           <t>https://www.usertesting.com</t>
@@ -21502,7 +23098,11 @@
           <t>Data quality and email deliverability platform</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr"/>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Validity</t>
+        </is>
+      </c>
       <c r="D483" t="inlineStr">
         <is>
           <t>https://www.validity.com</t>
@@ -21545,7 +23145,11 @@
           <t>Data backup and disaster recovery platform</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr"/>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Veeam</t>
+        </is>
+      </c>
       <c r="D484" t="inlineStr">
         <is>
           <t>https://www.veeam.com</t>
@@ -21588,7 +23192,11 @@
           <t>Talent marketplace and recruiting platform</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr"/>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Vettery</t>
+        </is>
+      </c>
       <c r="D485" t="inlineStr">
         <is>
           <t>https://vettery.com</t>
@@ -21631,7 +23239,11 @@
           <t>Automated video creation for software</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr"/>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Videate</t>
+        </is>
+      </c>
       <c r="D486" t="inlineStr">
         <is>
           <t>https://www.videate.com</t>
@@ -21674,7 +23286,11 @@
           <t>Video hosting and streaming platform</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr"/>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Vimeo</t>
+        </is>
+      </c>
       <c r="D487" t="inlineStr">
         <is>
           <t>https://vimeo.com</t>
@@ -21717,7 +23333,11 @@
           <t>Malware and virus scanning service</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr"/>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Virustotal</t>
+        </is>
+      </c>
       <c r="D488" t="inlineStr">
         <is>
           <t>https://www.virustotal.com</t>
@@ -21854,7 +23474,11 @@
           <t>Animated video creation platform</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr"/>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Vyond</t>
+        </is>
+      </c>
       <c r="D491" t="inlineStr">
         <is>
           <t>https://www.vyond.com</t>
@@ -21897,7 +23521,11 @@
           <t>Web Application Firewall remediation tool</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr"/>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Wafremediator</t>
+        </is>
+      </c>
       <c r="D492" t="inlineStr">
         <is>
           <t>https://www.wafremediator.com</t>
@@ -21987,7 +23615,11 @@
           <t>Employee scheduling and workforce management</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr"/>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Wheniwork</t>
+        </is>
+      </c>
       <c r="D494" t="inlineStr">
         <is>
           <t>https://wheniwork.com</t>
@@ -22030,7 +23662,11 @@
           <t>Data warehouse automation platform</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr"/>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Wherescape</t>
+        </is>
+      </c>
       <c r="D495" t="inlineStr">
         <is>
           <t>https://www.wherescape.com</t>
@@ -22214,7 +23850,11 @@
           <t>File compression and archive management</t>
         </is>
       </c>
-      <c r="C499" t="inlineStr"/>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Winzip</t>
+        </is>
+      </c>
       <c r="D499" t="inlineStr">
         <is>
           <t>https://www.winzip.com</t>
@@ -22257,7 +23897,11 @@
           <t>Automated deployment and configuration tool</t>
         </is>
       </c>
-      <c r="C500" t="inlineStr"/>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Wiz</t>
+        </is>
+      </c>
       <c r="D500" t="inlineStr">
         <is>
           <t>https://www.wiz.io</t>
@@ -22394,7 +24038,11 @@
           <t>Workflow as a Service automation platform</t>
         </is>
       </c>
-      <c r="C503" t="inlineStr"/>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Workflowplatform</t>
+        </is>
+      </c>
       <c r="D503" t="inlineStr">
         <is>
           <t>https://www.workflowplatform.com</t>
@@ -22531,7 +24179,11 @@
           <t>Connected reporting and compliance platform</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr"/>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Workiva</t>
+        </is>
+      </c>
       <c r="D506" t="inlineStr">
         <is>
           <t>https://www.workiva.com</t>
@@ -22574,7 +24226,11 @@
           <t>Learning management system for companies</t>
         </is>
       </c>
-      <c r="C507" t="inlineStr"/>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Workramp</t>
+        </is>
+      </c>
       <c r="D507" t="inlineStr">
         <is>
           <t>https://www.workramp.com</t>
@@ -22617,7 +24273,11 @@
           <t>Learning management system platform</t>
         </is>
       </c>
-      <c r="C508" t="inlineStr"/>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Workramp</t>
+        </is>
+      </c>
       <c r="D508" t="inlineStr">
         <is>
           <t>https://www.workramp.com</t>
@@ -22707,7 +24367,11 @@
           <t>Content delivery network for Avalara website</t>
         </is>
       </c>
-      <c r="C510" t="inlineStr"/>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Avalara</t>
+        </is>
+      </c>
       <c r="D510" t="inlineStr">
         <is>
           <t>https://www.avalara.com</t>
@@ -22750,7 +24414,11 @@
           <t>Sales performance management platform</t>
         </is>
       </c>
-      <c r="C511" t="inlineStr"/>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Xactly</t>
+        </is>
+      </c>
       <c r="D511" t="inlineStr">
         <is>
           <t>https://www.xactlycorp.com</t>
@@ -22793,7 +24461,11 @@
           <t>Cross-border health and safety assessment tool</t>
         </is>
       </c>
-      <c r="C512" t="inlineStr"/>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Xb Hsat</t>
+        </is>
+      </c>
       <c r="D512" t="inlineStr">
         <is>
           <t>https://www.xb-hsat.com</t>
@@ -22836,7 +24508,11 @@
           <t>Xbox business operations hub</t>
         </is>
       </c>
-      <c r="C513" t="inlineStr"/>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Microsoft Xbox</t>
+        </is>
+      </c>
       <c r="D513" t="inlineStr">
         <is>
           <t>https://www.xbox.com/business</t>
@@ -22879,7 +24555,11 @@
           <t>XML editor and development environment</t>
         </is>
       </c>
-      <c r="C514" t="inlineStr"/>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Altova</t>
+        </is>
+      </c>
       <c r="D514" t="inlineStr">
         <is>
           <t>https://www.altova.com/xmlspy-xml-editor</t>
@@ -22922,7 +24602,11 @@
           <t>Translation management system</t>
         </is>
       </c>
-      <c r="C515" t="inlineStr"/>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Xtm</t>
+        </is>
+      </c>
       <c r="D515" t="inlineStr">
         <is>
           <t>https://xtm.cloud</t>
@@ -22965,7 +24649,11 @@
           <t>Video sharing and streaming platform</t>
         </is>
       </c>
-      <c r="C516" t="inlineStr"/>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
       <c r="D516" t="inlineStr">
         <is>
           <t>https://www.youtube.com</t>
@@ -23008,7 +24696,11 @@
           <t>Enterprise network monitoring and management</t>
         </is>
       </c>
-      <c r="C517" t="inlineStr"/>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Zabbix</t>
+        </is>
+      </c>
       <c r="D517" t="inlineStr">
         <is>
           <t>https://www.zabbix.com</t>
@@ -23051,7 +24743,11 @@
           <t>Design system documentation platform</t>
         </is>
       </c>
-      <c r="C518" t="inlineStr"/>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Zeroheight</t>
+        </is>
+      </c>
       <c r="D518" t="inlineStr">
         <is>
           <t>https://zeroheight.com</t>
@@ -23094,7 +24790,11 @@
           <t>Software-defined networking platform</t>
         </is>
       </c>
-      <c r="C519" t="inlineStr"/>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>ZeroTier</t>
+        </is>
+      </c>
       <c r="D519" t="inlineStr">
         <is>
           <t>https://www.zerotier.com</t>
@@ -23137,7 +24837,11 @@
           <t>Barcode generation library and software</t>
         </is>
       </c>
-      <c r="C520" t="inlineStr"/>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Zint</t>
+        </is>
+      </c>
       <c r="D520" t="inlineStr">
         <is>
           <t>https://www.zint.org.uk</t>
@@ -23180,7 +24884,11 @@
           <t>NetSuite billing and invoicing integration</t>
         </is>
       </c>
-      <c r="C521" t="inlineStr"/>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Netsuite</t>
+        </is>
+      </c>
       <c r="D521" t="inlineStr">
         <is>
           <t>https://www.netsuite.com</t>
@@ -23223,7 +24931,11 @@
           <t>Video conferencing and communication platform</t>
         </is>
       </c>
-      <c r="C522" t="inlineStr"/>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Zoom</t>
+        </is>
+      </c>
       <c r="D522" t="inlineStr">
         <is>
           <t>https://zoom.us</t>
